--- a/results/consolidated_test_report_0712242059.xlsx
+++ b/results/consolidated_test_report_0712242059.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodolfocacacho/Documents/Documents/MAI/Master Thesis/Code/rag_project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4F74F4-B3AB-4547-8E82-4F266AE2434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EA5DB6-7274-7A40-B8B5-E54EB5679901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35260" yWindow="-7800" windowWidth="35260" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25520" yWindow="-7640" windowWidth="25360" windowHeight="28500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$R$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">type!$A$1:$S$21</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="126">
   <si>
     <t>test_name</t>
   </si>
@@ -405,6 +418,9 @@
   <si>
     <t>technische details</t>
   </si>
+  <si>
+    <t>Score</t>
+  </si>
 </sst>
 </file>
 
@@ -489,7 +505,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1090,18 +1126,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29.5" customWidth="1"/>
+    <col min="12" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,13 +1198,16 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>500</v>
@@ -1174,46 +1219,50 @@
         <v>395</v>
       </c>
       <c r="F2" s="2">
-        <v>10558.83037974684</v>
+        <v>10803.79493670886</v>
       </c>
       <c r="G2" s="2">
-        <v>5807.2435303157827</v>
+        <v>6924.1762603387169</v>
       </c>
       <c r="H2" s="2">
-        <v>559.28860759493671</v>
+        <v>545.93417721518983</v>
       </c>
       <c r="I2" s="2">
-        <v>498.67040756144519</v>
+        <v>496.40404956843179</v>
       </c>
       <c r="J2" s="3">
-        <v>0.41265822784810119</v>
+        <v>0.29367088607594938</v>
       </c>
       <c r="K2" s="3">
-        <v>0.57974683544303796</v>
+        <v>0.49113924050632912</v>
       </c>
       <c r="L2" s="3">
-        <v>0.53417721518987338</v>
+        <v>0.4379746835443038</v>
       </c>
       <c r="M2" s="3">
-        <v>0.64810126582278482</v>
+        <v>0.60506329113924051</v>
       </c>
       <c r="N2" s="4">
-        <v>2.886075949367088</v>
+        <v>2.7569620253164562</v>
       </c>
       <c r="O2" s="3">
-        <v>0.3468354430379747</v>
+        <v>0.29873417721518991</v>
       </c>
       <c r="P2" s="3">
-        <v>0.65870791139240514</v>
+        <v>0.65360320759493673</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.68190713924050628</v>
+        <v>0.66924436455696201</v>
       </c>
       <c r="R2" s="3">
-        <v>0.66829902531645569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.65927636202531636</v>
+      </c>
+      <c r="S2" s="3">
+        <f>N2/5</f>
+        <v>0.55139240506329124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1268,16 +1317,20 @@
       <c r="R3" s="3">
         <v>0.66555539240506334</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S11" si="0">N3/5</f>
+        <v>0.56658227848101261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D4">
         <v>0.7</v>
@@ -1286,46 +1339,50 @@
         <v>395</v>
       </c>
       <c r="F4" s="2">
-        <v>10803.79493670886</v>
+        <v>5963.359493670886</v>
       </c>
       <c r="G4" s="2">
-        <v>6924.1762603387169</v>
+        <v>3330.3518567451142</v>
       </c>
       <c r="H4" s="2">
-        <v>545.93417721518983</v>
+        <v>512.94683544303803</v>
       </c>
       <c r="I4" s="2">
-        <v>496.40404956843179</v>
+        <v>361.27836295852347</v>
       </c>
       <c r="J4" s="3">
-        <v>0.29367088607594938</v>
+        <v>0.1316455696202532</v>
       </c>
       <c r="K4" s="3">
-        <v>0.49113924050632912</v>
+        <v>0.21772151898734179</v>
       </c>
       <c r="L4" s="3">
-        <v>0.4379746835443038</v>
+        <v>0.2</v>
       </c>
       <c r="M4" s="3">
-        <v>0.60506329113924051</v>
+        <v>0.29620253164556959</v>
       </c>
       <c r="N4" s="4">
-        <v>2.7569620253164562</v>
+        <v>2.6329113924050631</v>
       </c>
       <c r="O4" s="3">
-        <v>0.29873417721518991</v>
+        <v>0.25822784810126581</v>
       </c>
       <c r="P4" s="3">
-        <v>0.65360320759493673</v>
+        <v>0.64077234683544304</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.66924436455696201</v>
+        <v>0.65749226835443031</v>
       </c>
       <c r="R4" s="3">
-        <v>0.65927636202531636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.64704045822784817</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52658227848101258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1380,16 +1437,20 @@
       <c r="R5" s="3">
         <v>0.6590746556962026</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.54734177215189883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D6">
         <v>0.7</v>
@@ -1398,54 +1459,58 @@
         <v>395</v>
       </c>
       <c r="F6" s="2">
-        <v>8080.9164556962023</v>
+        <v>6525.9544303797466</v>
       </c>
       <c r="G6" s="2">
-        <v>2036.9196574661889</v>
+        <v>2986.6368201339901</v>
       </c>
       <c r="H6" s="2">
-        <v>503.97974683544311</v>
+        <v>441.04556962025322</v>
       </c>
       <c r="I6" s="2">
-        <v>445.92445991922273</v>
+        <v>403.0916724459791</v>
       </c>
       <c r="J6" s="3">
-        <v>0.2</v>
+        <v>2.2784810126582278E-2</v>
       </c>
       <c r="K6" s="3">
-        <v>0.29113924050632911</v>
+        <v>0.16455696202531639</v>
       </c>
       <c r="L6" s="3">
-        <v>0.25569620253164549</v>
+        <v>4.0506329113924051E-2</v>
       </c>
       <c r="M6" s="3">
-        <v>0.33164556962025321</v>
+        <v>0.29620253164556959</v>
       </c>
       <c r="N6" s="4">
-        <v>2.6202531645569618</v>
+        <v>2.263291139240506</v>
       </c>
       <c r="O6" s="3">
-        <v>0.25063291139240512</v>
+        <v>0.1240506329113924</v>
       </c>
       <c r="P6" s="3">
-        <v>0.64211566075949378</v>
+        <v>0.63508065063291141</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.65761630632911394</v>
+        <v>0.63508571898734179</v>
       </c>
       <c r="R6" s="3">
-        <v>0.64775577721518984</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.63314706075949367</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45265822784810117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="D7">
         <v>0.7</v>
@@ -1454,51 +1519,55 @@
         <v>395</v>
       </c>
       <c r="F7" s="2">
-        <v>17973.845569620251</v>
+        <v>8080.9164556962023</v>
       </c>
       <c r="G7" s="2">
-        <v>9411.9012301144994</v>
+        <v>2036.9196574661889</v>
       </c>
       <c r="H7" s="2">
-        <v>604.1037974683544</v>
+        <v>503.97974683544311</v>
       </c>
       <c r="I7" s="2">
-        <v>612.55421130506738</v>
+        <v>445.92445991922273</v>
       </c>
       <c r="J7" s="3">
-        <v>0.1493670886075949</v>
+        <v>0.2</v>
       </c>
       <c r="K7" s="3">
-        <v>0.30126582278481012</v>
+        <v>0.29113924050632911</v>
       </c>
       <c r="L7" s="3">
-        <v>0.24050632911392411</v>
+        <v>0.25569620253164549</v>
       </c>
       <c r="M7" s="3">
-        <v>0.4708860759493671</v>
+        <v>0.33164556962025321</v>
       </c>
       <c r="N7" s="4">
-        <v>2.9974683544303802</v>
+        <v>2.6202531645569618</v>
       </c>
       <c r="O7" s="3">
-        <v>0.35189873417721518</v>
+        <v>0.25063291139240512</v>
       </c>
       <c r="P7" s="3">
-        <v>0.66821359240506328</v>
+        <v>0.64211566075949378</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.68712309873417732</v>
+        <v>0.65761630632911394</v>
       </c>
       <c r="R7" s="3">
-        <v>0.67556923797468338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.64775577721518984</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52405063291139231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>250</v>
@@ -1510,54 +1579,58 @@
         <v>395</v>
       </c>
       <c r="F8" s="2">
-        <v>5963.359493670886</v>
+        <v>6668.225316455696</v>
       </c>
       <c r="G8" s="2">
-        <v>3330.3518567451142</v>
+        <v>3320.8426698559711</v>
       </c>
       <c r="H8" s="2">
-        <v>512.94683544303803</v>
+        <v>556.90886075949368</v>
       </c>
       <c r="I8" s="2">
-        <v>361.27836295852347</v>
+        <v>399.35765276223867</v>
       </c>
       <c r="J8" s="3">
-        <v>0.1316455696202532</v>
+        <v>0.13670886075949371</v>
       </c>
       <c r="K8" s="3">
-        <v>0.21772151898734179</v>
+        <v>0.23037974683544299</v>
       </c>
       <c r="L8" s="3">
-        <v>0.2</v>
+        <v>0.18734177215189871</v>
       </c>
       <c r="M8" s="3">
-        <v>0.29620253164556959</v>
+        <v>0.3392405063291139</v>
       </c>
       <c r="N8" s="4">
-        <v>2.6329113924050631</v>
+        <v>2.8075949367088611</v>
       </c>
       <c r="O8" s="3">
-        <v>0.25822784810126581</v>
+        <v>0.29873417721518991</v>
       </c>
       <c r="P8" s="3">
-        <v>0.64077234683544304</v>
+        <v>0.65782091898734185</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.65749226835443031</v>
+        <v>0.67597258734177224</v>
       </c>
       <c r="R8" s="3">
-        <v>0.64704045822784817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.66493273670886066</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56151898734177219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D9">
         <v>0.7</v>
@@ -1566,54 +1639,58 @@
         <v>395</v>
       </c>
       <c r="F9" s="2">
-        <v>6668.225316455696</v>
+        <v>10558.83037974684</v>
       </c>
       <c r="G9" s="2">
-        <v>3320.8426698559711</v>
+        <v>5807.2435303157827</v>
       </c>
       <c r="H9" s="2">
-        <v>556.90886075949368</v>
+        <v>559.28860759493671</v>
       </c>
       <c r="I9" s="2">
-        <v>399.35765276223867</v>
+        <v>498.67040756144519</v>
       </c>
       <c r="J9" s="3">
-        <v>0.13670886075949371</v>
+        <v>0.41265822784810119</v>
       </c>
       <c r="K9" s="3">
-        <v>0.23037974683544299</v>
+        <v>0.57974683544303796</v>
       </c>
       <c r="L9" s="3">
-        <v>0.18734177215189871</v>
+        <v>0.53417721518987338</v>
       </c>
       <c r="M9" s="3">
-        <v>0.3392405063291139</v>
+        <v>0.64810126582278482</v>
       </c>
       <c r="N9" s="4">
-        <v>2.8075949367088611</v>
+        <v>2.886075949367088</v>
       </c>
       <c r="O9" s="3">
-        <v>0.29873417721518991</v>
+        <v>0.3468354430379747</v>
       </c>
       <c r="P9" s="3">
-        <v>0.65782091898734185</v>
+        <v>0.65870791139240514</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.67597258734177224</v>
+        <v>0.68190713924050628</v>
       </c>
       <c r="R9" s="3">
-        <v>0.66493273670886066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.66829902531645569</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57721518987341758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="D10">
         <v>0.7</v>
@@ -1622,46 +1699,50 @@
         <v>395</v>
       </c>
       <c r="F10" s="2">
-        <v>6525.9544303797466</v>
+        <v>17973.845569620251</v>
       </c>
       <c r="G10" s="2">
-        <v>2986.6368201339901</v>
+        <v>9411.9012301144994</v>
       </c>
       <c r="H10" s="2">
-        <v>441.04556962025322</v>
+        <v>604.1037974683544</v>
       </c>
       <c r="I10" s="2">
-        <v>403.0916724459791</v>
+        <v>612.55421130506738</v>
       </c>
       <c r="J10" s="3">
-        <v>2.2784810126582278E-2</v>
+        <v>0.1493670886075949</v>
       </c>
       <c r="K10" s="3">
-        <v>0.16455696202531639</v>
+        <v>0.30126582278481012</v>
       </c>
       <c r="L10" s="3">
-        <v>4.0506329113924051E-2</v>
+        <v>0.24050632911392411</v>
       </c>
       <c r="M10" s="3">
-        <v>0.29620253164556959</v>
+        <v>0.4708860759493671</v>
       </c>
       <c r="N10" s="4">
-        <v>2.263291139240506</v>
+        <v>2.9974683544303802</v>
       </c>
       <c r="O10" s="3">
-        <v>0.1240506329113924</v>
+        <v>0.35189873417721518</v>
       </c>
       <c r="P10" s="3">
-        <v>0.63508065063291141</v>
+        <v>0.66821359240506328</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.63508571898734179</v>
+        <v>0.68712309873417732</v>
       </c>
       <c r="R10" s="3">
-        <v>0.63314706075949367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.67556923797468338</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59949367088607608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1716,14 +1797,67 @@
       <c r="R11" s="3">
         <v>0.64624792911392415</v>
       </c>
+      <c r="S11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5113924050632912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R11">
-      <sortCondition descending="1" ref="L1:L11"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="J2:J11">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K11">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L11">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M11">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1735,7 +1869,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K11">
+  <conditionalFormatting sqref="N2:N11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1746,8 +1880,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="31" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="22" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L11">
+  <conditionalFormatting sqref="O2:O11">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1758,34 +1894,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="29" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="20" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M11">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N11">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="29" priority="18" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="28" priority="19" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O11">
+  <conditionalFormatting sqref="P2:P11">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1796,10 +1908,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="27" priority="16" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="26" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="27" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="12" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P11">
+  <conditionalFormatting sqref="Q2:Q11">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1813,7 +1925,7 @@
     <cfRule type="top10" dxfId="25" priority="8" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="24" priority="9" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q11">
+  <conditionalFormatting sqref="R2:R11">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1827,7 +1939,7 @@
     <cfRule type="top10" dxfId="23" priority="5" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="22" priority="6" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R11">
+  <conditionalFormatting sqref="S2:S17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1838,8 +1950,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="21" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="20" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="3" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5007,8 +5119,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="9" priority="18" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="21" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P21">
     <cfRule type="colorScale" priority="10">
@@ -5021,8 +5133,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="7" priority="16" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="6" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="19" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q21">
     <cfRule type="colorScale" priority="7">
@@ -5035,8 +5147,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="5" priority="8" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="4" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="17" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R21">
     <cfRule type="colorScale" priority="4">
@@ -5049,8 +5161,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="3" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="2" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="15" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S21">
     <cfRule type="colorScale" priority="1">
@@ -5063,8 +5175,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="0" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="3" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9923,8 +10035,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="19" priority="18" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="18" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="11" priority="18" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P81">
     <cfRule type="colorScale" priority="10">
@@ -9937,8 +10049,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="17" priority="16" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="16" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="9" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q81">
     <cfRule type="colorScale" priority="7">
@@ -9951,8 +10063,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="15" priority="8" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="14" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R81">
     <cfRule type="colorScale" priority="4">
@@ -9965,8 +10077,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="13" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="12" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="5" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S81">
     <cfRule type="colorScale" priority="1">
@@ -9979,8 +10091,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="11" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="10" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
